--- a/robot001_BOM.xlsx
+++ b/robot001_BOM.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="7560"/>
+    <workbookView windowWidth="19935" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0">Sheet1!$A$1:$G$27</definedName>
+    <definedName name="ExternalData_1" localSheetId="0">Sheet1!$A$1:$X$27</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -19,7 +19,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="robot001" type="6" background="1" refreshedVersion="2" saveData="1">
-    <textPr sourceFile="C:\Users\Ali\Documents\eagle\projects\robot001\CAMOutputs\Assembly\robot001.csv" space="1" semicolon="1" consecutive="1">
+    <textPr sourceFile="C:\Users\Ali\Documents\eagle\projects\robot001\CAMOutputs\Assembly\robot001.csv" semicolon="1" consecutive="1">
       <textFields>
         <textField/>
       </textFields>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="142">
   <si>
     <t>Qty</t>
   </si>
@@ -49,6 +49,60 @@
     <t>Description</t>
   </si>
   <si>
+    <t>AVAILABILITY</t>
+  </si>
+  <si>
+    <t>CREATED_BY</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>DIGI-KEY_PART_NUMBER</t>
+  </si>
+  <si>
+    <t>DIGI-KEY_PURCHASE_URL</t>
+  </si>
+  <si>
+    <t>DIGIKEY_PART_NUMBER</t>
+  </si>
+  <si>
+    <t>DIGI_KEY_PART_NUMBER</t>
+  </si>
+  <si>
+    <t>MANUFACTURER</t>
+  </si>
+  <si>
+    <t>MANUFACTURER_PART_NUMBER</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>MPN</t>
+  </si>
+  <si>
+    <t>PACKAGE</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>PROD_ID</t>
+  </si>
+  <si>
+    <t>SF_ID</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>VENDOR</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -106,6 +160,12 @@
     <t>Single Pole, Double Throw (SPDT) Switch</t>
   </si>
   <si>
+    <t>SWCH-08179</t>
+  </si>
+  <si>
+    <t>COM-00597</t>
+  </si>
+  <si>
     <t>TRANS_NPN_DUAL-MBT3904DW1T1</t>
   </si>
   <si>
@@ -118,6 +178,9 @@
     <t>Dual NPN Transistors in Single Package</t>
   </si>
   <si>
+    <t>TRANS-13337</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -133,13 +196,13 @@
     <t>RESISTOR, American symbol</t>
   </si>
   <si>
-    <t>10</t>
+    <t>12</t>
   </si>
   <si>
     <t>10k</t>
   </si>
   <si>
-    <t>R1, R2, R3, R4, R8, R10, R12, R14, R16, R17</t>
+    <t>R1, R2, R3, R4, R8, R10, R12, R14, R16, R17, R18, R19</t>
   </si>
   <si>
     <t>10nf</t>
@@ -190,12 +253,24 @@
     <t>CONN HEADER VERT 4POS 2.54MM</t>
   </si>
   <si>
+    <t>PCBLayout.com</t>
+  </si>
+  <si>
+    <t>732-5317-ND</t>
+  </si>
+  <si>
+    <t>Wurth Electronics Inc.</t>
+  </si>
+  <si>
     <t>LINE, LINE_SENSOR1</t>
   </si>
   <si>
     <t>CONN HEADER VERT 6POS 2.54MM</t>
   </si>
   <si>
+    <t>732-5319-ND</t>
+  </si>
+  <si>
     <t>7.5V</t>
   </si>
   <si>
@@ -211,6 +286,12 @@
     <t>Zener Diode</t>
   </si>
   <si>
+    <t>DIO-08199</t>
+  </si>
+  <si>
+    <t>3.6V</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -241,6 +322,9 @@
     <t>U3</t>
   </si>
   <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
     <t>ESP32-WROOM-32D</t>
   </si>
   <si>
@@ -253,6 +337,21 @@
     <t>IC: SoC; GPIO, I2C, I2S, IR, SD, SDIO, SPI, UART; 2.7أ·3.6VDC; 20dBm</t>
   </si>
   <si>
+    <t>Unavailable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bluetooth, WiFi 802.11b/g/n, Bluetooth v4.2 + EDR, Class 1, 2 and 3 Transceiver Module 2.4GHz ~ 2.5GHz Integrated, Trace Surface Mount </t>
+  </si>
+  <si>
+    <t>Espressif Systems</t>
+  </si>
+  <si>
+    <t>Module Espressif Systems</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>FLASH</t>
   </si>
   <si>
@@ -265,6 +364,9 @@
     <t>6x3.5mm 2-pin Momentary Switch (Push-button)</t>
   </si>
   <si>
+    <t>SWCH-00815</t>
+  </si>
+  <si>
     <t>LD1117S33TR</t>
   </si>
   <si>
@@ -277,6 +379,12 @@
     <t>IC REG LINEAR 3.3V 800MA SOT223</t>
   </si>
   <si>
+    <t>497-1242-2-ND</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
     <t>MOUSE-BITES-5</t>
   </si>
   <si>
@@ -314,6 +422,21 @@
   </si>
   <si>
     <t>QRE1113 Series 30 V 50 mA Miniature Reflective Object Sensor - SMD-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reflective Optical Sensor 0.197 _5mm_ 4-SMD, Gull Wing </t>
+  </si>
+  <si>
+    <t>QRE1113GRCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/on-semiconductor/QRE1113GR/QRE1113GRCT-ND/965713?utm_source=snapeda&amp;utm_medium=aggregator&amp;utm_campaign=symbol</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>SMD-4 ON Semiconductor</t>
   </si>
   <si>
     <t>RST</t>
@@ -339,9 +462,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -354,50 +477,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,14 +486,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,17 +506,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,16 +584,30 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,7 +620,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,25 +629,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,162 +827,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -701,16 +842,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,13 +891,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,39 +948,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -802,7 +958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -820,138 +976,147 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1277,537 +1442,1153 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.71428571428571" customWidth="1"/>
     <col min="2" max="2" width="38.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="51.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="38.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="47.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="59" customWidth="1"/>
+    <col min="5" max="5" width="49.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="64.9809523809524" customWidth="1"/>
+    <col min="7" max="7" width="13.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="15.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="64.9809523809524" customWidth="1"/>
+    <col min="10" max="10" width="25.1428571428571" customWidth="1"/>
+    <col min="11" max="11" width="64.9809523809524" customWidth="1"/>
+    <col min="12" max="12" width="24.2857142857143" customWidth="1"/>
+    <col min="13" max="13" width="25.4285714285714" customWidth="1"/>
+    <col min="14" max="14" width="22" customWidth="1"/>
+    <col min="15" max="15" width="33.1428571428571" customWidth="1"/>
+    <col min="16" max="16" width="19.1428571428571" customWidth="1"/>
+    <col min="17" max="17" width="20.1428571428571" customWidth="1"/>
+    <col min="18" max="18" width="13.1428571428571" customWidth="1"/>
+    <col min="19" max="19" width="26.2857142857143" customWidth="1"/>
+    <col min="20" max="20" width="6.57142857142857" customWidth="1"/>
+    <col min="21" max="21" width="13.5714285714286" customWidth="1"/>
+    <col min="22" max="22" width="11.7142857142857" customWidth="1"/>
+    <col min="23" max="23" width="7.28571428571429" customWidth="1"/>
+    <col min="24" max="24" width="18.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B7">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="4">
         <v>100</v>
       </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4">
+        <v>61300411121</v>
+      </c>
+      <c r="C13" s="4">
+        <v>61300411121</v>
+      </c>
+      <c r="D13" s="4">
+        <v>61300411121</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4">
+        <v>61300411121</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>61300411121</v>
-      </c>
-      <c r="C13">
-        <v>61300411121</v>
-      </c>
-      <c r="D13">
-        <v>61300411121</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>61300611121</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>61300611121</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>61300611121</v>
       </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="E14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E20" t="s">
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4">
+        <v>61300611121</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="X15" s="4"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" t="s">
-        <v>100</v>
-      </c>
+      <c r="B25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
